--- a/file/input/model_Q124/output/yoy_sfa_result.xlsx
+++ b/file/input/model_Q124/output/yoy_sfa_result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O452"/>
+  <dimension ref="A1:R452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,21 @@
           <t>mse</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>treshold1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>treshold2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>treshold3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -567,6 +582,21 @@
       <c r="O2" t="n">
         <v>0.000436949682326966</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -626,6 +656,21 @@
       <c r="O3" t="n">
         <v>0.0004929979074045598</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -685,6 +730,21 @@
       <c r="O4" t="n">
         <v>0.0003632813732159762</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -744,6 +804,21 @@
       <c r="O5" t="n">
         <v>0.0005057598311621449</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -803,6 +878,21 @@
       <c r="O6" t="n">
         <v>0.0004725794795705971</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -862,6 +952,21 @@
       <c r="O7" t="n">
         <v>0.0005083919389552467</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -921,6 +1026,21 @@
       <c r="O8" t="n">
         <v>0.000494017065954636</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -980,6 +1100,21 @@
       <c r="O9" t="n">
         <v>0.0004923665366074491</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1039,6 +1174,21 @@
       <c r="O10" t="n">
         <v>0.0004945165806816286</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1098,6 +1248,21 @@
       <c r="O11" t="n">
         <v>0.000507118804911427</v>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1157,6 +1322,21 @@
       <c r="O12" t="n">
         <v>0.0005043357180315029</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1216,6 +1396,21 @@
       <c r="O13" t="n">
         <v>0.0004962851532007105</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1275,6 +1470,21 @@
       <c r="O14" t="n">
         <v>0.0004948050056111381</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1334,6 +1544,21 @@
       <c r="O15" t="n">
         <v>0.0004931816366805548</v>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1393,6 +1618,21 @@
       <c r="O16" t="n">
         <v>0.0004994423631151947</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1452,6 +1692,21 @@
       <c r="O17" t="n">
         <v>0.0004889756832175416</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1511,6 +1766,21 @@
       <c r="O18" t="n">
         <v>0.0005032193543872646</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1570,6 +1840,21 @@
       <c r="O19" t="n">
         <v>0.0004302708620930152</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1629,6 +1914,21 @@
       <c r="O20" t="n">
         <v>0.0005009903507678536</v>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1688,6 +1988,21 @@
       <c r="O21" t="n">
         <v>0.0004814445953746694</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1747,6 +2062,21 @@
       <c r="O22" t="n">
         <v>0.0004738845482405552</v>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1806,6 +2136,21 @@
       <c r="O23" t="n">
         <v>0.0005009227403686747</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1865,6 +2210,21 @@
       <c r="O24" t="n">
         <v>0.0002459813981464139</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1924,6 +2284,21 @@
       <c r="O25" t="n">
         <v>0.0005092001228834662</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1983,6 +2358,21 @@
       <c r="O26" t="n">
         <v>0.0004573048716314415</v>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2042,6 +2432,21 @@
       <c r="O27" t="n">
         <v>0.0004716958024592771</v>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2101,6 +2506,21 @@
       <c r="O28" t="n">
         <v>0.0004773155351856297</v>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2160,6 +2580,21 @@
       <c r="O29" t="n">
         <v>0.00035034540852144</v>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2219,6 +2654,21 @@
       <c r="O30" t="n">
         <v>0.0005040022016187452</v>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2278,6 +2728,21 @@
       <c r="O31" t="n">
         <v>0.0004834443836724599</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2337,6 +2802,21 @@
       <c r="O32" t="n">
         <v>0.0004693581617256055</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2396,6 +2876,21 @@
       <c r="O33" t="n">
         <v>0.0004194205771199441</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2455,6 +2950,21 @@
       <c r="O34" t="n">
         <v>0.0004574699576490145</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2514,6 +3024,21 @@
       <c r="O35" t="n">
         <v>0.000493282097992323</v>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2573,6 +3098,21 @@
       <c r="O36" t="n">
         <v>0.0005061964428639501</v>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2632,6 +3172,21 @@
       <c r="O37" t="n">
         <v>0.0004630899977286329</v>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2691,6 +3246,21 @@
       <c r="O38" t="n">
         <v>0.0003398429917621991</v>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2750,6 +3320,21 @@
       <c r="O39" t="n">
         <v>0.0005020802670043515</v>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2809,6 +3394,21 @@
       <c r="O40" t="n">
         <v>0.0004872393722778583</v>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2868,6 +3468,21 @@
       <c r="O41" t="n">
         <v>0.0005091073835146708</v>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2927,6 +3542,21 @@
       <c r="O42" t="n">
         <v>0.0004728966085298965</v>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2986,6 +3616,21 @@
       <c r="O43" t="n">
         <v>0.0006796717030427026</v>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3045,6 +3690,21 @@
       <c r="O44" t="n">
         <v>0.0007532498756369036</v>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3104,6 +3764,21 @@
       <c r="O45" t="n">
         <v>0.0006424621937463057</v>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3163,6 +3838,21 @@
       <c r="O46" t="n">
         <v>0.0007661671006493962</v>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3222,6 +3912,21 @@
       <c r="O47" t="n">
         <v>0.0007464809874313555</v>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3281,6 +3986,21 @@
       <c r="O48" t="n">
         <v>0.0007728302196118017</v>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3340,6 +4060,21 @@
       <c r="O49" t="n">
         <v>0.000756442817867677</v>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3399,6 +4134,21 @@
       <c r="O50" t="n">
         <v>0.0007773156373751108</v>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3458,6 +4208,21 @@
       <c r="O51" t="n">
         <v>0.0007496529531703397</v>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3517,6 +4282,21 @@
       <c r="O52" t="n">
         <v>0.0007817254176238189</v>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3576,6 +4356,21 @@
       <c r="O53" t="n">
         <v>0.0007592203705212147</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3635,6 +4430,21 @@
       <c r="O54" t="n">
         <v>0.0007711185074594719</v>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3694,6 +4504,21 @@
       <c r="O55" t="n">
         <v>0.0007304730927428836</v>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3753,6 +4578,21 @@
       <c r="O56" t="n">
         <v>0.0007501181784177111</v>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3812,6 +4652,21 @@
       <c r="O57" t="n">
         <v>0.0007548800756885724</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3871,6 +4726,21 @@
       <c r="O58" t="n">
         <v>0.0007203919454399502</v>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3930,6 +4800,21 @@
       <c r="O59" t="n">
         <v>0.0007817436038946163</v>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3989,6 +4874,21 @@
       <c r="O60" t="n">
         <v>0.0006078390534861783</v>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4048,6 +4948,21 @@
       <c r="O61" t="n">
         <v>0.0007667205279616903</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4107,6 +5022,21 @@
       <c r="O62" t="n">
         <v>0.000725185557464371</v>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4166,6 +5096,21 @@
       <c r="O63" t="n">
         <v>0.0006907538404738095</v>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4225,6 +5170,21 @@
       <c r="O64" t="n">
         <v>0.000734479945474257</v>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4284,6 +5244,21 @@
       <c r="O65" t="n">
         <v>0.0003803414654178891</v>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4343,6 +5318,21 @@
       <c r="O66" t="n">
         <v>0.000781466570006653</v>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4402,6 +5392,21 @@
       <c r="O67" t="n">
         <v>0.0007137267553474009</v>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4461,6 +5466,21 @@
       <c r="O68" t="n">
         <v>0.0007043894505440446</v>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4520,6 +5540,21 @@
       <c r="O69" t="n">
         <v>0.0006697509613917944</v>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4579,6 +5614,21 @@
       <c r="O70" t="n">
         <v>0.0005555558238917496</v>
       </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4638,6 +5688,21 @@
       <c r="O71" t="n">
         <v>0.0007654460990439313</v>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4697,6 +5762,21 @@
       <c r="O72" t="n">
         <v>0.000755143712607667</v>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4756,6 +5836,21 @@
       <c r="O73" t="n">
         <v>0.0007027713279683254</v>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4815,6 +5910,21 @@
       <c r="O74" t="n">
         <v>0.0006065828752893247</v>
       </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4874,6 +5984,21 @@
       <c r="O75" t="n">
         <v>0.0007171621070891916</v>
       </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4933,6 +6058,21 @@
       <c r="O76" t="n">
         <v>0.0007398720246354273</v>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4992,6 +6132,21 @@
       <c r="O77" t="n">
         <v>0.0007806613961306148</v>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5051,6 +6206,21 @@
       <c r="O78" t="n">
         <v>0.0007224576904005202</v>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5110,6 +6280,21 @@
       <c r="O79" t="n">
         <v>0.0005718134356470299</v>
       </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5169,6 +6354,21 @@
       <c r="O80" t="n">
         <v>0.0007772568165301749</v>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5228,6 +6428,21 @@
       <c r="O81" t="n">
         <v>0.0007268618854480779</v>
       </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5287,6 +6502,21 @@
       <c r="O82" t="n">
         <v>0.0007814023955479998</v>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5346,6 +6576,21 @@
       <c r="O83" t="n">
         <v>0.0007549256799416607</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5405,6 +6650,21 @@
       <c r="O84" t="n">
         <v>0.002479593979934512</v>
       </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5464,6 +6724,21 @@
       <c r="O85" t="n">
         <v>0.002702536185527507</v>
       </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5523,6 +6798,21 @@
       <c r="O86" t="n">
         <v>0.002504165193930168</v>
       </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5582,6 +6872,21 @@
       <c r="O87" t="n">
         <v>0.002711478711404304</v>
       </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5641,6 +6946,21 @@
       <c r="O88" t="n">
         <v>0.002733977083961189</v>
       </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5700,6 +7020,21 @@
       <c r="O89" t="n">
         <v>0.002739320403061319</v>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5759,6 +7094,21 @@
       <c r="O90" t="n">
         <v>0.002720094978760117</v>
       </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5818,6 +7168,21 @@
       <c r="O91" t="n">
         <v>0.002809952449620902</v>
       </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5877,6 +7242,21 @@
       <c r="O92" t="n">
         <v>0.00266443726255443</v>
       </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5936,6 +7316,21 @@
       <c r="O93" t="n">
         <v>0.002802935397171473</v>
       </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5995,6 +7390,21 @@
       <c r="O94" t="n">
         <v>0.002656751784841433</v>
       </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6054,6 +7464,21 @@
       <c r="O95" t="n">
         <v>0.00280078329013342</v>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6113,6 +7538,21 @@
       <c r="O96" t="n">
         <v>0.002515227415369219</v>
       </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6172,6 +7612,21 @@
       <c r="O97" t="n">
         <v>0.00268451496838062</v>
       </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6231,6 +7686,21 @@
       <c r="O98" t="n">
         <v>0.002676288500460282</v>
       </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -6290,6 +7760,21 @@
       <c r="O99" t="n">
         <v>0.002508620017855756</v>
       </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6349,6 +7834,21 @@
       <c r="O100" t="n">
         <v>0.002784189610667715</v>
       </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -6408,6 +7908,21 @@
       <c r="O101" t="n">
         <v>0.002044730658424379</v>
       </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -6467,6 +7982,21 @@
       <c r="O102" t="n">
         <v>0.002755426545523513</v>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -6526,6 +8056,21 @@
       <c r="O103" t="n">
         <v>0.002606871646361461</v>
       </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6585,6 +8130,21 @@
       <c r="O104" t="n">
         <v>0.002396388435951872</v>
       </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6644,6 +8204,21 @@
       <c r="O105" t="n">
         <v>0.002504259237945115</v>
       </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6703,6 +8278,21 @@
       <c r="O106" t="n">
         <v>0.001441882992780602</v>
       </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6762,6 +8352,21 @@
       <c r="O107" t="n">
         <v>0.00280156065019586</v>
       </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6821,6 +8426,21 @@
       <c r="O108" t="n">
         <v>0.002605576905583588</v>
       </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6880,6 +8500,21 @@
       <c r="O109" t="n">
         <v>0.002487560766545913</v>
       </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6939,6 +8574,21 @@
       <c r="O110" t="n">
         <v>0.002231228428751326</v>
       </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6998,6 +8648,21 @@
       <c r="O111" t="n">
         <v>0.002114538445960818</v>
       </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7057,6 +8722,21 @@
       <c r="O112" t="n">
         <v>0.00272041836750193</v>
       </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7116,6 +8796,21 @@
       <c r="O113" t="n">
         <v>0.002761725509974495</v>
       </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7175,6 +8870,21 @@
       <c r="O114" t="n">
         <v>0.002480978295351568</v>
       </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7234,6 +8944,21 @@
       <c r="O115" t="n">
         <v>0.00219025225390629</v>
       </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -7293,6 +9018,21 @@
       <c r="O116" t="n">
         <v>0.002645191355443191</v>
       </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7352,6 +9092,21 @@
       <c r="O117" t="n">
         <v>0.002610351925290464</v>
       </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -7411,6 +9166,21 @@
       <c r="O118" t="n">
         <v>0.002809870005257554</v>
       </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -7470,6 +9240,21 @@
       <c r="O119" t="n">
         <v>0.00266697277382801</v>
       </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -7529,6 +9314,21 @@
       <c r="O120" t="n">
         <v>0.002270803679436453</v>
       </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -7588,6 +9388,21 @@
       <c r="O121" t="n">
         <v>0.002807257566272532</v>
       </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -7647,6 +9462,21 @@
       <c r="O122" t="n">
         <v>0.002556522483600722</v>
       </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -7706,6 +9536,21 @@
       <c r="O123" t="n">
         <v>0.002810522993640859</v>
       </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7765,6 +9610,21 @@
       <c r="O124" t="n">
         <v>0.002786914792205766</v>
       </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7824,6 +9684,21 @@
       <c r="O125" t="n">
         <v>0.007149296163170646</v>
       </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7883,6 +9758,21 @@
       <c r="O126" t="n">
         <v>0.007589783487688245</v>
       </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7942,6 +9832,21 @@
       <c r="O127" t="n">
         <v>0.007520996943389594</v>
       </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -8001,6 +9906,21 @@
       <c r="O128" t="n">
         <v>0.007448149626234577</v>
       </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -8060,6 +9980,21 @@
       <c r="O129" t="n">
         <v>0.00777868584659245</v>
       </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -8119,6 +10054,21 @@
       <c r="O130" t="n">
         <v>0.007601259326298824</v>
       </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -8178,6 +10128,21 @@
       <c r="O131" t="n">
         <v>0.007638868027136761</v>
       </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -8237,6 +10202,21 @@
       <c r="O132" t="n">
         <v>0.007772680177117475</v>
       </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -8296,6 +10276,21 @@
       <c r="O133" t="n">
         <v>0.007387021398704246</v>
       </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -8355,6 +10350,21 @@
       <c r="O134" t="n">
         <v>0.007795035542345972</v>
       </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -8414,6 +10424,21 @@
       <c r="O135" t="n">
         <v>0.007292687317452218</v>
       </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8473,6 +10498,21 @@
       <c r="O136" t="n">
         <v>0.00786867599419792</v>
       </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -8532,6 +10572,21 @@
       <c r="O137" t="n">
         <v>0.006667643016875641</v>
       </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -8591,6 +10646,21 @@
       <c r="O138" t="n">
         <v>0.007508771292185345</v>
       </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8650,6 +10720,21 @@
       <c r="O139" t="n">
         <v>0.007382729145256649</v>
       </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8709,6 +10794,21 @@
       <c r="O140" t="n">
         <v>0.006773648921265134</v>
       </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -8768,6 +10868,21 @@
       <c r="O141" t="n">
         <v>0.007704724101317503</v>
       </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -8827,6 +10942,21 @@
       <c r="O142" t="n">
         <v>0.005384340392198254</v>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8886,6 +11016,21 @@
       <c r="O143" t="n">
         <v>0.007725686891292542</v>
       </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8945,6 +11090,21 @@
       <c r="O144" t="n">
         <v>0.007213339193376828</v>
       </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -9004,6 +11164,21 @@
       <c r="O145" t="n">
         <v>0.006423588613744285</v>
       </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -9063,6 +11238,21 @@
       <c r="O146" t="n">
         <v>0.006638872885755519</v>
       </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -9122,6 +11312,21 @@
       <c r="O147" t="n">
         <v>0.004538952210357192</v>
       </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9181,6 +11386,21 @@
       <c r="O148" t="n">
         <v>0.007816796140290598</v>
       </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -9240,6 +11460,21 @@
       <c r="O149" t="n">
         <v>0.007410466326492543</v>
       </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -9299,6 +11534,21 @@
       <c r="O150" t="n">
         <v>0.006923567804497373</v>
       </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -9358,6 +11608,21 @@
       <c r="O151" t="n">
         <v>0.00558788171166081</v>
       </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -9417,6 +11682,21 @@
       <c r="O152" t="n">
         <v>0.006329058944294804</v>
       </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -9476,6 +11756,21 @@
       <c r="O153" t="n">
         <v>0.007543333984113039</v>
       </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -9535,6 +11830,21 @@
       <c r="O154" t="n">
         <v>0.00782576324093754</v>
       </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -9594,6 +11904,21 @@
       <c r="O155" t="n">
         <v>0.006913428225394398</v>
       </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -9653,6 +11978,21 @@
       <c r="O156" t="n">
         <v>0.005703425574450618</v>
       </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -9712,6 +12052,21 @@
       <c r="O157" t="n">
         <v>0.007591074462896335</v>
       </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -9771,6 +12126,21 @@
       <c r="O158" t="n">
         <v>0.007218072102316652</v>
       </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -9830,6 +12200,21 @@
       <c r="O159" t="n">
         <v>0.007878871082617202</v>
       </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -9889,6 +12274,21 @@
       <c r="O160" t="n">
         <v>0.007512517380916567</v>
       </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -9948,6 +12348,21 @@
       <c r="O161" t="n">
         <v>0.006479661797643845</v>
       </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -10007,6 +12422,21 @@
       <c r="O162" t="n">
         <v>0.00788225411406401</v>
       </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -10066,6 +12496,21 @@
       <c r="O163" t="n">
         <v>0.007038393233462652</v>
       </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -10125,6 +12570,21 @@
       <c r="O164" t="n">
         <v>0.007876425717493495</v>
       </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -10184,6 +12644,21 @@
       <c r="O165" t="n">
         <v>0.007869667956059128</v>
       </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -10243,6 +12718,21 @@
       <c r="O166" t="n">
         <v>0.0393853538358409</v>
       </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -10302,6 +12792,21 @@
       <c r="O167" t="n">
         <v>0.04117150679616206</v>
       </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -10361,6 +12866,21 @@
       <c r="O168" t="n">
         <v>0.03412600648230175</v>
       </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -10420,6 +12940,21 @@
       <c r="O169" t="n">
         <v>0.04121989059825649</v>
       </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -10479,6 +13014,21 @@
       <c r="O170" t="n">
         <v>0.04054928314480714</v>
       </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -10538,6 +13088,21 @@
       <c r="O171" t="n">
         <v>0.04178457106942313</v>
       </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -10597,6 +13162,21 @@
       <c r="O172" t="n">
         <v>0.04127301569326809</v>
       </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -10656,6 +13236,21 @@
       <c r="O173" t="n">
         <v>0.04145606355590974</v>
       </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10715,6 +13310,21 @@
       <c r="O174" t="n">
         <v>0.04091011244974419</v>
       </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -10774,6 +13384,21 @@
       <c r="O175" t="n">
         <v>0.04181529836131859</v>
       </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -10833,6 +13458,21 @@
       <c r="O176" t="n">
         <v>0.0414814205052176</v>
       </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -10892,6 +13532,21 @@
       <c r="O177" t="n">
         <v>0.04151782189134831</v>
       </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -10951,6 +13606,21 @@
       <c r="O178" t="n">
         <v>0.0406437937547835</v>
       </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -11010,6 +13680,21 @@
       <c r="O179" t="n">
         <v>0.04136535332496721</v>
       </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -11069,6 +13754,21 @@
       <c r="O180" t="n">
         <v>0.04156071134528052</v>
       </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -11128,6 +13828,21 @@
       <c r="O181" t="n">
         <v>0.04153300483970478</v>
       </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -11187,6 +13902,21 @@
       <c r="O182" t="n">
         <v>0.04171557591339189</v>
       </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -11246,6 +13976,21 @@
       <c r="O183" t="n">
         <v>0.03860600646467511</v>
       </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -11305,6 +14050,21 @@
       <c r="O184" t="n">
         <v>0.04161961010489135</v>
       </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -11364,6 +14124,21 @@
       <c r="O185" t="n">
         <v>0.04109330899299493</v>
       </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -11423,6 +14198,21 @@
       <c r="O186" t="n">
         <v>0.04151685623206086</v>
       </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -11482,6 +14272,21 @@
       <c r="O187" t="n">
         <v>0.04167146021589021</v>
       </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -11541,6 +14346,21 @@
       <c r="O188" t="n">
         <v>0.03102563651799428</v>
       </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -11600,6 +14420,21 @@
       <c r="O189" t="n">
         <v>0.04182239523175597</v>
       </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -11659,6 +14494,21 @@
       <c r="O190" t="n">
         <v>0.03976914591013597</v>
       </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -11718,6 +14568,21 @@
       <c r="O191" t="n">
         <v>0.04050470633971041</v>
       </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -11777,6 +14642,21 @@
       <c r="O192" t="n">
         <v>0.04176277987947339</v>
       </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -11836,6 +14716,21 @@
       <c r="O193" t="n">
         <v>0.03708730526030741</v>
       </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -11895,6 +14790,21 @@
       <c r="O194" t="n">
         <v>0.04152498676522315</v>
       </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -11954,6 +14864,21 @@
       <c r="O195" t="n">
         <v>0.04116703516694099</v>
       </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -12013,6 +14938,21 @@
       <c r="O196" t="n">
         <v>0.04011468765186069</v>
       </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -12072,6 +15012,21 @@
       <c r="O197" t="n">
         <v>0.03849189267259427</v>
       </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -12131,6 +15086,21 @@
       <c r="O198" t="n">
         <v>0.0409581150212488</v>
       </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -12190,6 +15160,21 @@
       <c r="O199" t="n">
         <v>0.04144597883946676</v>
       </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -12249,6 +15234,21 @@
       <c r="O200" t="n">
         <v>0.04157012673248978</v>
       </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -12308,6 +15308,21 @@
       <c r="O201" t="n">
         <v>0.04067842042902464</v>
       </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -12367,6 +15382,21 @@
       <c r="O202" t="n">
         <v>0.03444063648327122</v>
       </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -12426,6 +15456,21 @@
       <c r="O203" t="n">
         <v>0.04176556528954581</v>
       </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -12485,6 +15530,21 @@
       <c r="O204" t="n">
         <v>0.04120416533836527</v>
       </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -12544,6 +15604,21 @@
       <c r="O205" t="n">
         <v>0.04171818828628768</v>
       </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -12603,6 +15678,21 @@
       <c r="O206" t="n">
         <v>0.0409731428964801</v>
       </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -12662,6 +15752,21 @@
       <c r="O207" t="n">
         <v>0.0008508099948628786</v>
       </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -12721,6 +15826,21 @@
       <c r="O208" t="n">
         <v>0.000963373653748949</v>
       </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -12780,6 +15900,21 @@
       <c r="O209" t="n">
         <v>0.0006970586429363503</v>
       </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -12839,6 +15974,21 @@
       <c r="O210" t="n">
         <v>0.0009904722622331424</v>
       </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -12898,6 +16048,21 @@
       <c r="O211" t="n">
         <v>0.0009181893578257707</v>
       </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -12957,6 +16122,21 @@
       <c r="O212" t="n">
         <v>0.0009929903986513394</v>
       </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -13016,6 +16196,21 @@
       <c r="O213" t="n">
         <v>0.0009656079028921939</v>
       </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -13075,6 +16270,21 @@
       <c r="O214" t="n">
         <v>0.0009483727462472612</v>
       </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -13134,6 +16344,21 @@
       <c r="O215" t="n">
         <v>0.0009704841856421143</v>
       </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -13193,6 +16418,21 @@
       <c r="O216" t="n">
         <v>0.000986784145011442</v>
       </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -13252,6 +16492,21 @@
       <c r="O217" t="n">
         <v>0.0009865261629134112</v>
       </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -13311,6 +16566,21 @@
       <c r="O218" t="n">
         <v>0.000966431336521904</v>
       </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -13370,6 +16640,21 @@
       <c r="O219" t="n">
         <v>0.0009748946596270623</v>
       </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -13429,6 +16714,21 @@
       <c r="O220" t="n">
         <v>0.0009635852730027473</v>
       </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -13488,6 +16788,21 @@
       <c r="O221" t="n">
         <v>0.0009782170338122999</v>
       </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -13547,6 +16862,21 @@
       <c r="O222" t="n">
         <v>0.0009547033196580382</v>
       </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -13606,6 +16936,21 @@
       <c r="O223" t="n">
         <v>0.0009831447542759469</v>
       </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -13665,6 +17010,21 @@
       <c r="O224" t="n">
         <v>0.0008548195275656998</v>
       </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -13724,6 +17084,21 @@
       <c r="O225" t="n">
         <v>0.0009780600104970546</v>
       </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -13783,6 +17158,21 @@
       <c r="O226" t="n">
         <v>0.0009397020139761432</v>
       </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -13842,6 +17232,21 @@
       <c r="O227" t="n">
         <v>0.0009310536467968738</v>
       </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -13901,6 +17306,21 @@
       <c r="O228" t="n">
         <v>0.0009773119359356751</v>
       </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -13960,6 +17380,21 @@
       <c r="O229" t="n">
         <v>0.0004823076475932034</v>
       </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -14019,6 +17454,21 @@
       <c r="O230" t="n">
         <v>0.0009932276150018673</v>
       </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -14078,6 +17528,21 @@
       <c r="O231" t="n">
         <v>0.0008950598915778581</v>
       </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -14137,6 +17602,21 @@
       <c r="O232" t="n">
         <v>0.000923807561434116</v>
       </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -14196,6 +17676,21 @@
       <c r="O233" t="n">
         <v>0.0009410224734633241</v>
       </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -14255,6 +17750,21 @@
       <c r="O234" t="n">
         <v>0.0006664023355973792</v>
       </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -14314,6 +17824,21 @@
       <c r="O235" t="n">
         <v>0.0009861519681732195</v>
       </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -14373,6 +17898,21 @@
       <c r="O236" t="n">
         <v>0.0009397561078307777</v>
       </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -14432,6 +17972,21 @@
       <c r="O237" t="n">
         <v>0.0009189989162507981</v>
       </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -14491,6 +18046,21 @@
       <c r="O238" t="n">
         <v>0.0008279112253935163</v>
       </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -14550,6 +18120,21 @@
       <c r="O239" t="n">
         <v>0.0008813025516045357</v>
       </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -14609,6 +18194,21 @@
       <c r="O240" t="n">
         <v>0.0009641564709568959</v>
       </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -14668,6 +18268,21 @@
       <c r="O241" t="n">
         <v>0.0009868653134761931</v>
       </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -14727,6 +18342,21 @@
       <c r="O242" t="n">
         <v>0.0009035891200924451</v>
       </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -14786,6 +18416,21 @@
       <c r="O243" t="n">
         <v>0.0007157427180347085</v>
       </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -14845,6 +18490,21 @@
       <c r="O244" t="n">
         <v>0.0009775686511123128</v>
       </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -14904,6 +18564,21 @@
       <c r="O245" t="n">
         <v>0.000953081336193745</v>
       </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -14963,6 +18638,21 @@
       <c r="O246" t="n">
         <v>0.0009939758735452394</v>
       </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -15022,6 +18712,21 @@
       <c r="O247" t="n">
         <v>0.0009234395803514869</v>
       </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -15081,6 +18786,21 @@
       <c r="O248" t="n">
         <v>0.003627119481122549</v>
       </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -15140,6 +18860,21 @@
       <c r="O249" t="n">
         <v>0.003993263168510011</v>
       </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -15199,6 +18934,21 @@
       <c r="O250" t="n">
         <v>0.003278856847187199</v>
       </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -15258,6 +19008,21 @@
       <c r="O251" t="n">
         <v>0.004074755090903473</v>
       </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -15317,6 +19082,21 @@
       <c r="O252" t="n">
         <v>0.003899967941239165</v>
       </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -15376,6 +19156,21 @@
       <c r="O253" t="n">
         <v>0.004116743533161825</v>
       </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -15435,6 +19230,21 @@
       <c r="O254" t="n">
         <v>0.00402108525606041</v>
       </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -15494,6 +19304,21 @@
       <c r="O255" t="n">
         <v>0.004087444291288309</v>
       </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -15553,6 +19378,21 @@
       <c r="O256" t="n">
         <v>0.003993542678959549</v>
       </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -15612,6 +19452,21 @@
       <c r="O257" t="n">
         <v>0.004131097392397596</v>
       </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -15671,6 +19526,21 @@
       <c r="O258" t="n">
         <v>0.004079444749563572</v>
       </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -15730,6 +19600,21 @@
       <c r="O259" t="n">
         <v>0.004014255408705603</v>
       </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -15789,6 +19674,21 @@
       <c r="O260" t="n">
         <v>0.003934329650962972</v>
       </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -15848,6 +19748,21 @@
       <c r="O261" t="n">
         <v>0.003989747226427863</v>
       </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -15907,6 +19822,21 @@
       <c r="O262" t="n">
         <v>0.004032383653570634</v>
       </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -15966,6 +19896,21 @@
       <c r="O263" t="n">
         <v>0.003890558485728045</v>
       </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -16025,6 +19970,21 @@
       <c r="O264" t="n">
         <v>0.004103357650671377</v>
       </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -16084,6 +20044,21 @@
       <c r="O265" t="n">
         <v>0.003365349752844969</v>
       </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -16143,6 +20118,21 @@
       <c r="O266" t="n">
         <v>0.00405926152421407</v>
       </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -16202,6 +20192,21 @@
       <c r="O267" t="n">
         <v>0.003811801953796732</v>
       </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -16261,6 +20266,21 @@
       <c r="O268" t="n">
         <v>0.003730710646270354</v>
       </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -16320,6 +20340,21 @@
       <c r="O269" t="n">
         <v>0.003999643330344514</v>
       </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -16379,6 +20414,21 @@
       <c r="O270" t="n">
         <v>0.002126529593410543</v>
       </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -16438,6 +20488,21 @@
       <c r="O271" t="n">
         <v>0.004135223693462844</v>
       </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -16497,6 +20562,21 @@
       <c r="O272" t="n">
         <v>0.003733503854999418</v>
       </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -16556,6 +20636,21 @@
       <c r="O273" t="n">
         <v>0.003792116117495229</v>
       </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -16615,6 +20710,21 @@
       <c r="O274" t="n">
         <v>0.003720502185145318</v>
       </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -16674,6 +20784,21 @@
       <c r="O275" t="n">
         <v>0.002950556490338099</v>
       </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -16733,6 +20858,21 @@
       <c r="O276" t="n">
         <v>0.004075600795822707</v>
       </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -16792,6 +20932,21 @@
       <c r="O277" t="n">
         <v>0.003968510912632063</v>
       </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -16851,6 +21006,21 @@
       <c r="O278" t="n">
         <v>0.003790317476264563</v>
       </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -16910,6 +21080,21 @@
       <c r="O279" t="n">
         <v>0.003061942915537852</v>
       </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -16969,6 +21154,21 @@
       <c r="O280" t="n">
         <v>0.003762648102008089</v>
       </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -17028,6 +21228,21 @@
       <c r="O281" t="n">
         <v>0.003971669717164596</v>
       </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -17087,6 +21302,21 @@
       <c r="O282" t="n">
         <v>0.004123640689053894</v>
       </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -17146,6 +21376,21 @@
       <c r="O283" t="n">
         <v>0.003725900081692539</v>
       </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -17205,6 +21450,21 @@
       <c r="O284" t="n">
         <v>0.00270601797450655</v>
       </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -17264,6 +21524,21 @@
       <c r="O285" t="n">
         <v>0.004101374494425111</v>
       </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -17323,6 +21598,21 @@
       <c r="O286" t="n">
         <v>0.003909033039994775</v>
       </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -17382,6 +21672,21 @@
       <c r="O287" t="n">
         <v>0.004112494863048434</v>
       </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -17441,6 +21746,21 @@
       <c r="O288" t="n">
         <v>0.003842262145986821</v>
       </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -17500,6 +21820,21 @@
       <c r="O289" t="n">
         <v>0.008115864370212554</v>
       </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -17559,6 +21894,21 @@
       <c r="O290" t="n">
         <v>0.008847306111467163</v>
       </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -17618,6 +21968,21 @@
       <c r="O291" t="n">
         <v>0.007506782845374168</v>
       </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -17677,6 +22042,21 @@
       <c r="O292" t="n">
         <v>0.008992984602996839</v>
       </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -17736,6 +22116,21 @@
       <c r="O293" t="n">
         <v>0.008704576203740962</v>
       </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -17795,6 +22190,21 @@
       <c r="O294" t="n">
         <v>0.009113211650822095</v>
       </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -17854,6 +22264,21 @@
       <c r="O295" t="n">
         <v>0.008918803355797785</v>
       </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -17913,6 +22338,21 @@
       <c r="O296" t="n">
         <v>0.009112461355540825</v>
       </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -17972,6 +22412,21 @@
       <c r="O297" t="n">
         <v>0.008827590885825014</v>
       </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -18031,6 +22486,21 @@
       <c r="O298" t="n">
         <v>0.009162542891744419</v>
       </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -18090,6 +22560,21 @@
       <c r="O299" t="n">
         <v>0.009026608905635424</v>
       </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -18149,6 +22634,21 @@
       <c r="O300" t="n">
         <v>0.00890235814006341</v>
       </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -18208,6 +22708,21 @@
       <c r="O301" t="n">
         <v>0.008631029933210832</v>
       </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -18267,6 +22782,21 @@
       <c r="O302" t="n">
         <v>0.008837499619371096</v>
       </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -18326,6 +22856,21 @@
       <c r="O303" t="n">
         <v>0.008914141192353356</v>
       </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -18385,6 +22930,21 @@
       <c r="O304" t="n">
         <v>0.008581868080628463</v>
       </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -18444,6 +23004,21 @@
       <c r="O305" t="n">
         <v>0.009100112283729004</v>
       </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -18503,6 +23078,21 @@
       <c r="O306" t="n">
         <v>0.007363719606227619</v>
       </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -18562,6 +23152,21 @@
       <c r="O307" t="n">
         <v>0.008994603911850052</v>
       </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -18621,6 +23226,21 @@
       <c r="O308" t="n">
         <v>0.008405776871059012</v>
       </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -18680,6 +23300,21 @@
       <c r="O309" t="n">
         <v>0.008186713211749437</v>
       </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -18739,6 +23374,21 @@
       <c r="O310" t="n">
         <v>0.008824108731777091</v>
       </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -18798,6 +23448,21 @@
       <c r="O311" t="n">
         <v>0.004864487775150215</v>
       </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -18857,6 +23522,21 @@
       <c r="O312" t="n">
         <v>0.009163344623827646</v>
       </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -18916,6 +23596,21 @@
       <c r="O313" t="n">
         <v>0.008295702183091294</v>
       </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -18975,6 +23670,21 @@
       <c r="O314" t="n">
         <v>0.008383647619983635</v>
       </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -19034,6 +23744,21 @@
       <c r="O315" t="n">
         <v>0.008125898254923157</v>
       </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -19093,6 +23818,21 @@
       <c r="O316" t="n">
         <v>0.006698596415617426</v>
       </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -19152,6 +23892,21 @@
       <c r="O317" t="n">
         <v>0.009017175645310634</v>
       </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -19211,6 +23966,21 @@
       <c r="O318" t="n">
         <v>0.008832580230840029</v>
       </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -19270,6 +24040,21 @@
       <c r="O319" t="n">
         <v>0.00839433578922421</v>
       </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -19329,6 +24114,21 @@
       <c r="O320" t="n">
         <v>0.006564806784069843</v>
       </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -19388,6 +24188,21 @@
       <c r="O321" t="n">
         <v>0.008410300054016343</v>
       </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -19447,6 +24262,21 @@
       <c r="O322" t="n">
         <v>0.008784446334205142</v>
       </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -19506,6 +24336,21 @@
       <c r="O323" t="n">
         <v>0.009148987938350511</v>
       </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -19565,6 +24410,21 @@
       <c r="O324" t="n">
         <v>0.008257013826631516</v>
       </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -19624,6 +24484,21 @@
       <c r="O325" t="n">
         <v>0.005845039199771107</v>
       </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -19683,6 +24558,21 @@
       <c r="O326" t="n">
         <v>0.009107603971999159</v>
       </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -19742,6 +24632,21 @@
       <c r="O327" t="n">
         <v>0.008636537159870672</v>
       </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -19801,6 +24706,21 @@
       <c r="O328" t="n">
         <v>0.009096062614149336</v>
       </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -19860,6 +24780,21 @@
       <c r="O329" t="n">
         <v>0.008529608790376807</v>
       </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -19919,6 +24854,21 @@
       <c r="O330" t="n">
         <v>0.0001592940516316589</v>
       </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -19978,6 +24928,21 @@
       <c r="O331" t="n">
         <v>0.0001846293419516965</v>
       </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -20037,6 +25002,21 @@
       <c r="O332" t="n">
         <v>0.0001174408105702513</v>
       </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -20096,6 +25076,21 @@
       <c r="O333" t="n">
         <v>0.0001859210831346916</v>
       </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -20155,6 +25150,21 @@
       <c r="O334" t="n">
         <v>0.0001670866681930907</v>
       </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -20214,6 +25224,21 @@
       <c r="O335" t="n">
         <v>0.000187198752009604</v>
       </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -20273,6 +25298,21 @@
       <c r="O336" t="n">
         <v>0.0001835443611343397</v>
       </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -20332,6 +25372,21 @@
       <c r="O337" t="n">
         <v>0.000156373965332696</v>
       </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -20391,6 +25446,21 @@
       <c r="O338" t="n">
         <v>0.0001868066359232212</v>
       </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -20450,6 +25520,21 @@
       <c r="O339" t="n">
         <v>0.00018074234148967</v>
       </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -20509,6 +25594,21 @@
       <c r="O340" t="n">
         <v>0.000187409380804381</v>
       </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -20568,6 +25668,21 @@
       <c r="O341" t="n">
         <v>0.0001833191433381053</v>
       </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -20627,6 +25742,21 @@
       <c r="O342" t="n">
         <v>0.0001865567730070471</v>
       </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -20686,6 +25816,21 @@
       <c r="O343" t="n">
         <v>0.0001844665796097257</v>
       </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -20745,6 +25890,21 @@
       <c r="O344" t="n">
         <v>0.000187224537036042</v>
       </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -20804,6 +25964,21 @@
       <c r="O345" t="n">
         <v>0.0001853217616199063</v>
       </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -20863,6 +26038,21 @@
       <c r="O346" t="n">
         <v>0.0001853010126470636</v>
       </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -20922,6 +26112,21 @@
       <c r="O347" t="n">
         <v>0.0001804824459418217</v>
       </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -20981,6 +26186,21 @@
       <c r="O348" t="n">
         <v>0.0001857909249130717</v>
       </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -21040,6 +26260,21 @@
       <c r="O349" t="n">
         <v>0.0001844152123012531</v>
       </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -21099,6 +26334,21 @@
       <c r="O350" t="n">
         <v>0.0001853307525611158</v>
       </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -21158,6 +26408,21 @@
       <c r="O351" t="n">
         <v>0.0001873668363172202</v>
       </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -21217,6 +26482,21 @@
       <c r="O352" t="n">
         <v>0.0001141073206435796</v>
       </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -21276,6 +26556,21 @@
       <c r="O353" t="n">
         <v>0.0001848079287446801</v>
       </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -21335,6 +26630,21 @@
       <c r="O354" t="n">
         <v>0.0001742779474896637</v>
       </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -21394,6 +26704,21 @@
       <c r="O355" t="n">
         <v>0.0001818269572429091</v>
       </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -21453,6 +26778,21 @@
       <c r="O356" t="n">
         <v>0.0001864667857756874</v>
       </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -21512,6 +26852,21 @@
       <c r="O357" t="n">
         <v>0.0001258934884614826</v>
       </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -21571,6 +26926,21 @@
       <c r="O358" t="n">
         <v>0.0001874251046129046</v>
       </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -21630,6 +27000,21 @@
       <c r="O359" t="n">
         <v>0.0001741954870881134</v>
       </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -21689,6 +27074,21 @@
       <c r="O360" t="n">
         <v>0.0001799968908233377</v>
       </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -21748,6 +27148,21 @@
       <c r="O361" t="n">
         <v>0.0001842546284743371</v>
       </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -21807,6 +27222,21 @@
       <c r="O362" t="n">
         <v>0.0001610325827040782</v>
       </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -21866,6 +27296,21 @@
       <c r="O363" t="n">
         <v>0.0001854645582998423</v>
       </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -21925,6 +27370,21 @@
       <c r="O364" t="n">
         <v>0.0001839323904851902</v>
       </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -21984,6 +27444,21 @@
       <c r="O365" t="n">
         <v>0.0001766192067261895</v>
       </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -22043,6 +27518,21 @@
       <c r="O366" t="n">
         <v>0.0001725932112783587</v>
       </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -22102,6 +27592,21 @@
       <c r="O367" t="n">
         <v>0.0001807072381107042</v>
       </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -22161,6 +27666,21 @@
       <c r="O368" t="n">
         <v>0.0001849176540411465</v>
       </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -22220,6 +27740,21 @@
       <c r="O369" t="n">
         <v>0.000186071484052346</v>
       </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -22279,6 +27814,21 @@
       <c r="O370" t="n">
         <v>0.0001783898887498518</v>
       </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -22338,6 +27888,21 @@
       <c r="O371" t="n">
         <v>0.001607955547815342</v>
       </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -22397,6 +27962,21 @@
       <c r="O372" t="n">
         <v>0.001845733910484547</v>
       </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -22456,6 +28036,21 @@
       <c r="O373" t="n">
         <v>0.001154853476231172</v>
       </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -22515,6 +28110,21 @@
       <c r="O374" t="n">
         <v>0.001886168109871973</v>
       </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -22574,6 +28184,21 @@
       <c r="O375" t="n">
         <v>0.001709740197983285</v>
       </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -22633,6 +28258,21 @@
       <c r="O376" t="n">
         <v>0.001886700919700824</v>
       </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -22692,6 +28332,21 @@
       <c r="O377" t="n">
         <v>0.001840661114384512</v>
       </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -22751,6 +28406,21 @@
       <c r="O378" t="n">
         <v>0.001675890838700067</v>
       </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -22810,6 +28480,21 @@
       <c r="O379" t="n">
         <v>0.001868044446551785</v>
       </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -22869,6 +28554,21 @@
       <c r="O380" t="n">
         <v>0.001851715619014434</v>
       </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -22928,6 +28628,21 @@
       <c r="O381" t="n">
         <v>0.00188290531881122</v>
       </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -22987,6 +28702,21 @@
       <c r="O382" t="n">
         <v>0.001842823279840889</v>
       </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -23046,6 +28776,21 @@
       <c r="O383" t="n">
         <v>0.001886048078398825</v>
       </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -23105,6 +28850,21 @@
       <c r="O384" t="n">
         <v>0.001849035884971633</v>
       </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -23164,6 +28924,21 @@
       <c r="O385" t="n">
         <v>0.001881988478032033</v>
       </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -23223,6 +28998,21 @@
       <c r="O386" t="n">
         <v>0.001861766505155231</v>
       </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -23282,6 +29072,21 @@
       <c r="O387" t="n">
         <v>0.001868209386933405</v>
       </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -23341,6 +29146,21 @@
       <c r="O388" t="n">
         <v>0.00176014895335333</v>
       </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -23400,6 +29220,21 @@
       <c r="O389" t="n">
         <v>0.001866275684403497</v>
       </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -23459,6 +29294,21 @@
       <c r="O390" t="n">
         <v>0.001835044093776555</v>
       </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -23518,6 +29368,21 @@
       <c r="O391" t="n">
         <v>0.001854020510921203</v>
       </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -23577,6 +29442,21 @@
       <c r="O392" t="n">
         <v>0.001885209402159856</v>
       </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -23636,6 +29516,21 @@
       <c r="O393" t="n">
         <v>0.001031329732298295</v>
       </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -23695,6 +29590,21 @@
       <c r="O394" t="n">
         <v>0.001875739272787081</v>
       </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -23754,6 +29664,21 @@
       <c r="O395" t="n">
         <v>0.001741763907649992</v>
       </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -23813,6 +29738,21 @@
       <c r="O396" t="n">
         <v>0.001801926496935314</v>
       </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -23872,6 +29812,21 @@
       <c r="O397" t="n">
         <v>0.001870751970893936</v>
       </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -23931,6 +29886,21 @@
       <c r="O398" t="n">
         <v>0.001282516099536205</v>
       </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -23990,6 +29960,21 @@
       <c r="O399" t="n">
         <v>0.001883632929073699</v>
       </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -24049,6 +30034,21 @@
       <c r="O400" t="n">
         <v>0.001752101085185406</v>
       </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -24108,6 +30108,21 @@
       <c r="O401" t="n">
         <v>0.001786235174145209</v>
       </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -24167,6 +30182,21 @@
       <c r="O402" t="n">
         <v>0.001785283158456818</v>
       </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -24226,6 +30256,21 @@
       <c r="O403" t="n">
         <v>0.001662374033789973</v>
       </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -24285,6 +30330,21 @@
       <c r="O404" t="n">
         <v>0.001859189036054937</v>
       </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -24344,6 +30404,21 @@
       <c r="O405" t="n">
         <v>0.001851809443504562</v>
       </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -24403,6 +30478,21 @@
       <c r="O406" t="n">
         <v>0.001769238026967851</v>
       </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -24462,6 +30552,21 @@
       <c r="O407" t="n">
         <v>0.001618754007720782</v>
       </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -24521,6 +30626,21 @@
       <c r="O408" t="n">
         <v>0.001830024571952659</v>
       </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -24580,6 +30700,21 @@
       <c r="O409" t="n">
         <v>0.001849508351081599</v>
       </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -24639,6 +30774,21 @@
       <c r="O410" t="n">
         <v>0.001883818380949619</v>
       </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -24698,6 +30848,21 @@
       <c r="O411" t="n">
         <v>0.001783219342529541</v>
       </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -24757,6 +30922,21 @@
       <c r="O412" t="n">
         <v>0.005706127853893328</v>
       </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -24816,6 +30996,21 @@
       <c r="O413" t="n">
         <v>0.006532497553014254</v>
       </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -24875,6 +31070,21 @@
       <c r="O414" t="n">
         <v>0.004111544950318678</v>
       </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -24934,6 +31144,21 @@
       <c r="O415" t="n">
         <v>0.006684017871919068</v>
       </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -24993,6 +31218,21 @@
       <c r="O416" t="n">
         <v>0.006072529059179215</v>
       </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -25052,6 +31292,21 @@
       <c r="O417" t="n">
         <v>0.006683831245489169</v>
       </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -25111,6 +31366,21 @@
       <c r="O418" t="n">
         <v>0.006516875721537962</v>
       </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -25170,6 +31440,21 @@
       <c r="O419" t="n">
         <v>0.006034289710425518</v>
       </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -25229,6 +31514,21 @@
       <c r="O420" t="n">
         <v>0.006597892925968824</v>
       </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -25288,6 +31588,21 @@
       <c r="O421" t="n">
         <v>0.006600392709524597</v>
       </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -25347,6 +31662,21 @@
       <c r="O422" t="n">
         <v>0.006663274053761138</v>
       </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -25406,6 +31736,21 @@
       <c r="O423" t="n">
         <v>0.006534322274663302</v>
       </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -25465,6 +31810,21 @@
       <c r="O424" t="n">
         <v>0.00667124708384515</v>
       </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -25524,6 +31884,21 @@
       <c r="O425" t="n">
         <v>0.0065479133263749</v>
       </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -25583,6 +31958,21 @@
       <c r="O426" t="n">
         <v>0.006663689922674928</v>
       </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -25642,6 +32032,21 @@
       <c r="O427" t="n">
         <v>0.006596191825213067</v>
       </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -25701,6 +32106,21 @@
       <c r="O428" t="n">
         <v>0.006622716043238108</v>
       </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -25760,6 +32180,21 @@
       <c r="O429" t="n">
         <v>0.006176592313577586</v>
       </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -25819,6 +32254,21 @@
       <c r="O430" t="n">
         <v>0.006611380664877218</v>
       </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -25878,6 +32328,21 @@
       <c r="O431" t="n">
         <v>0.006488151926185555</v>
       </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -25937,6 +32402,21 @@
       <c r="O432" t="n">
         <v>0.006573201646278817</v>
       </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -25996,6 +32476,21 @@
       <c r="O433" t="n">
         <v>0.006677149773575559</v>
       </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -26055,6 +32550,21 @@
       <c r="O434" t="n">
         <v>0.00361784230192529</v>
       </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -26114,6 +32624,21 @@
       <c r="O435" t="n">
         <v>0.006658066604625057</v>
       </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -26173,6 +32698,21 @@
       <c r="O436" t="n">
         <v>0.006163264148615981</v>
       </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -26232,6 +32772,21 @@
       <c r="O437" t="n">
         <v>0.006370389476830372</v>
       </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -26291,6 +32846,21 @@
       <c r="O438" t="n">
         <v>0.006627470632838033</v>
       </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -26350,6 +32920,21 @@
       <c r="O439" t="n">
         <v>0.004629547475355749</v>
       </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -26409,6 +32994,21 @@
       <c r="O440" t="n">
         <v>0.006666729655619346</v>
       </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -26468,6 +33068,21 @@
       <c r="O441" t="n">
         <v>0.006230877684405028</v>
       </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -26527,6 +33142,21 @@
       <c r="O442" t="n">
         <v>0.006306996975182957</v>
       </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -26586,6 +33216,21 @@
       <c r="O443" t="n">
         <v>0.006284996678139446</v>
       </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -26645,6 +33290,21 @@
       <c r="O444" t="n">
         <v>0.005967317630964301</v>
       </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -26704,6 +33364,21 @@
       <c r="O445" t="n">
         <v>0.006583062701831288</v>
       </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -26763,6 +33438,21 @@
       <c r="O446" t="n">
         <v>0.006566814962124169</v>
       </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -26822,6 +33512,21 @@
       <c r="O447" t="n">
         <v>0.006276349643308453</v>
       </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -26881,6 +33586,21 @@
       <c r="O448" t="n">
         <v>0.005591445976081308</v>
       </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -26940,6 +33660,21 @@
       <c r="O449" t="n">
         <v>0.006510392210703751</v>
       </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -26999,6 +33734,21 @@
       <c r="O450" t="n">
         <v>0.006546394925004429</v>
       </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -27058,6 +33808,21 @@
       <c r="O451" t="n">
         <v>0.006680087746895504</v>
       </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -27116,6 +33881,21 @@
       </c>
       <c r="O452" t="n">
         <v>0.006330835980579958</v>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>['N']</t>
+        </is>
       </c>
     </row>
   </sheetData>
